--- a/BalanceSheet/PPG_bal.xlsx
+++ b/BalanceSheet/PPG_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-189000000.0</v>
+        <v>1914000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>75000000.0</v>
+        <v>1735000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>65000000.0</v>
+        <v>1672000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>177000000.0</v>
+        <v>1706000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-206000000.0</v>
+        <v>1859000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1710000000.0</v>
@@ -1790,19 +1790,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>110000000.0</v>
+        <v>3714000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150000000.0</v>
+        <v>2259000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>324000000.0</v>
+        <v>3401000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-260000000.0</v>
+        <v>2970000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-87000000.0</v>
+        <v>3068000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>3496000000.0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>12000000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>209000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>216000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>452000000.0</v>
